--- a/doc/Setting.xlsx
+++ b/doc/Setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\AI\Projects\Dual-GDNet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB95169-38AE-40DF-88C1-BE631576C004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CA4433-128C-412C-8275-A8B64AEDDA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDNet_mdc6f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flyingthings3D_finalpass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +79,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -380,38 +396,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1">
+        <v>384</v>
+      </c>
+      <c r="D2" s="1">
+        <v>144</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
